--- a/1月18/2.xlsx
+++ b/1月18/2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36017\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A09939-B88D-4502-AD23-CEC14A723B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A1CC79-37AC-4DAB-A704-87647FD38123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="17616" windowHeight="12336" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="87">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支付理财</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支付宝期限理财</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,6 +336,53 @@
   </si>
   <si>
     <t>买入成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝零钱理财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借贷金额</t>
+  </si>
+  <si>
+    <t>借贷期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全网络贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核是否成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到账</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -864,7 +908,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1010,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D74A89E6-A6D0-4500-B706-68EB05520683}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1024,12 +1068,13 @@
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" customWidth="1"/>
     <col min="6" max="6" width="41.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="17.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1049,13 +1094,16 @@
         <v>29</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1074,11 +1122,12 @@
       <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1095,11 +1144,12 @@
       <c r="F3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1116,11 +1166,12 @@
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1137,7 +1188,10 @@
       <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1152,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58315600-7F9A-48F3-9131-450BEB978A85}">
-  <dimension ref="A7:G9"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1170,70 +1224,70 @@
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="2" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1245,7 +1299,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1374,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54749F10-6589-4C2A-BA5C-D78E3CA09382}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="E10" sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1392,7 +1446,7 @@
     <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1463,7 @@
         <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>59</v>
@@ -1417,8 +1471,11 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1431,20 +1488,20 @@
       <c r="D2" s="2">
         <v>123456</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="2">
         <v>666666</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1455,62 +1512,68 @@
       <c r="D3" s="2">
         <v>123456</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="2">
         <v>666667</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2">
         <v>123456</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="F4" s="2">
         <v>666666</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2">
         <v>123456</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="F5" s="2">
         <v>666666</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1521,20 +1584,20 @@
       <c r="D6" s="2">
         <v>123456</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F6" s="2">
         <v>666666</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1545,62 +1608,68 @@
       <c r="D7" s="2">
         <v>123456</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F7" s="2">
         <v>666667</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2">
         <v>123456</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F8" s="2">
         <v>666666</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2">
         <v>123456</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="F9" s="2">
         <v>666666</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1611,20 +1680,20 @@
       <c r="D10" s="2">
         <v>123456</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F10" s="2">
         <v>666666</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1635,124 +1704,137 @@
       <c r="D11" s="2">
         <v>123456</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F11" s="2">
         <v>666667</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2">
         <v>123456</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F12" s="2">
         <v>666666</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2">
         <v>123456</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F13" s="2">
         <v>666666</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2">
         <v>123456</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="F14" s="2">
+        <v>666666</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="2">
         <v>123456</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F15" s="2">
         <v>666666</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="2">
         <v>123456</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F16" s="2">
         <v>666666</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,31 +1843,261 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2">
         <v>123456</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="F17" s="2">
         <v>666666</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E14:E17"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3015FD4-87AF-4EA8-A89F-60DFBC150FB5}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1E+17</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
+        <v>366</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>365</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>